--- a/Tasks_1_sem/Tasks.xlsx
+++ b/Tasks_1_sem/Tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/233ff03b8280f316/Рабочий стол/Practice-dev/Задачи на 1 семестр/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Проги\Practice\Tasks_1_sem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{30293BA5-A1D9-479F-BDE9-3F7EEEAAE4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABBABF64-02E3-49F3-8B8D-AB8F923494F7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A2452E-38CB-44F5-A50F-740885418953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08E66B02-90A5-4DBE-B310-89731172CFD8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="144">
   <si>
     <t>Найти уравнение прямой, проходящей через две заданные пользователем точки координатной плоскости. Уравнение любой прямой имеет вид y = kx + b. Если известны две пары (x; y), то получают систему уравнений относительно коэффициентов k и b:</t>
   </si>
@@ -570,6 +570,51 @@
   </si>
   <si>
     <t>С, сложность E, 1 семестр, массивы</t>
+  </si>
+  <si>
+    <t>Даны значения двух моментов времени, принадлежащих одним и тем же суткам: часы, минуты и секунды для каждого из моментов времени. Известно, что второй момент времени наступил не раньше первого. Определите, сколько секунд прошло между двумя моментами времени.</t>
+  </si>
+  <si>
+    <t>Определите наименьшее расстояние между двумя локальными максимумами последовательности натуральных чисел, завершающейся числом 0. Если в последовательности нет двух локальных максимумов, выведите число 0.</t>
+  </si>
+  <si>
+    <t>Входные данные:
+3 4 5 1 6 2 1 3 5 0
+Выходные данные:
+1</t>
+  </si>
+  <si>
+    <t>Даны действительные коэффициенты a, b, c. Решите уравнение ax2 + bx + c = 0 и выведите все его корни.Если данное уравнение не имеет корней, выведите число 0. Если уравнение имеет один корень, выведите число 1, а затем этот корень. Если уравнение имеет два корня, выведите число 2, а затем два корня в порядке возрастания. Если уравнение имеет бесконечно много корней, выведите число 3.</t>
+  </si>
+  <si>
+    <t>Дан массив. Выведите те его элементы, которые встречаются в массиве только один раз. Элементы нужно выводить в том порядке, в котором они встречаются в списке.</t>
+  </si>
+  <si>
+    <t>Входные данные:
+12 32 45
+17 43 06
+Выходные данные:
+18621</t>
+  </si>
+  <si>
+    <t>Входные данные:
+1 -5 4
+Выходные данные:
+2
+4 1</t>
+  </si>
+  <si>
+    <t>Входные данные:
+8
+4 3 5 2 5 1 3 5 
+Выходные данные:
+4 2 1</t>
+  </si>
+  <si>
+    <t>С, сложность F, 1 семестр, простые операторы</t>
+  </si>
+  <si>
+    <t>С, сложность Е, 1 семестр, простые операторы</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB57B17-6A15-45A5-8FFE-C15181C6CFB2}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1508,45 +1553,71 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
